--- a/formato-postulante-plazas-subir (2).xlsx
+++ b/formato-postulante-plazas-subir (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21012" windowHeight="9252" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21012" windowHeight="9252"/>
   </bookViews>
   <sheets>
     <sheet name="Postulantes" sheetId="1" r:id="rId1"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,14 +1456,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C79" sqref="C2:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="65.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/formato-postulante-plazas-subir (2).xlsx
+++ b/formato-postulante-plazas-subir (2).xlsx
@@ -870,7 +870,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A40" sqref="A1:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
